--- a/files/4_Carga Manual FDH.xlsx
+++ b/files/4_Carga Manual FDH.xlsx
@@ -13,6 +13,29 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This is a comment</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
@@ -74,7 +97,7 @@
     <numFmt numFmtId="166" formatCode="#"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +112,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -496,5 +525,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>